--- a/dev_projects/centrifugal_compressor/volute_losses.xlsx
+++ b/dev_projects/centrifugal_compressor/volute_losses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/roagr_dtu_dk/Documents/Skrivebord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/roagr_dtu_dk/Documents/Roberto/Projects/turboflow/dev_projects/centrifugal_compressor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CEDEA92-3128-4E9E-A83F-0E348B265481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{6CEDEA92-3128-4E9E-A83F-0E348B265481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84681D8D-8CBE-4252-A013-EFBB4331DB0C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{60A6D442-877A-4301-8433-76AC6757BC33}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{60A6D442-877A-4301-8433-76AC6757BC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,8 +73,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -107,8 +107,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,157 +238,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="35">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="37">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="38">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80</c:v>
+                <c:pt idx="53">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,157 +430,187 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0.99999996953825843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58778862511435637</c:v>
+                  <c:v>0.99931476737728686</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57534845871563101</c:v>
+                  <c:v>0.99726094768413653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56269465723032019</c:v>
+                  <c:v>0.99384417029756889</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54984263736636474</c:v>
+                  <c:v>0.98907380036690273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53680805733026749</c:v>
+                  <c:v>0.9829629131445341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52360679774997898</c:v>
+                  <c:v>0.97552825814757682</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.51025494232679969</c:v>
+                  <c:v>0.96679021324860093</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49676875823986705</c:v>
+                  <c:v>0.9567727288213006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4831646763271038</c:v>
+                  <c:v>0.94550326209418389</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46945927106677215</c:v>
+                  <c:v>0.93301270189221941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45566924038402618</c:v>
+                  <c:v>0.91933528397271203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44181138530706143</c:v>
+                  <c:v>0.90450849718747361</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42790258949765009</c:v>
+                  <c:v>0.88857298072848545</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41395979868100047</c:v>
+                  <c:v>0.87157241273869712</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40000000000000013</c:v>
+                  <c:v>0.85355339059327373</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.38604020131899963</c:v>
+                  <c:v>0.83456530317942901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37209741050234985</c:v>
+                  <c:v>0.81466019552491875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.35818861469293867</c:v>
+                  <c:v>0.79389262614623668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.34433075961597381</c:v>
+                  <c:v>0.7723195175075136</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.33054072893322789</c:v>
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.31683532367289635</c:v>
+                  <c:v>0.72699524986977337</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.30323124176013294</c:v>
+                  <c:v>0.70336832153790019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28974505767320041</c:v>
+                  <c:v>0.67918397477265025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27639320225002101</c:v>
+                  <c:v>0.65450849718747373</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.26319194266973261</c:v>
+                  <c:v>0.62940952255126037</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25015736263363519</c:v>
+                  <c:v>0.6039558454088797</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.23730534276967996</c:v>
+                  <c:v>0.57821723252011548</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.22465154128436901</c:v>
+                  <c:v>0.55226423163382676</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.21221137488564368</c:v>
+                  <c:v>0.52616797812147187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20000000000000009</c:v>
+                  <c:v>0.50000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.18803229430671808</c:v>
+                  <c:v>0.47383202187852813</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17632283861170134</c:v>
+                  <c:v>0.44773576836617329</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.16488589908301077</c:v>
+                  <c:v>0.42178276747988458</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.15373540986973674</c:v>
+                  <c:v>0.39604415459112041</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.14288495612538429</c:v>
+                  <c:v>0.37059047744873963</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13234775745645672</c:v>
+                  <c:v>0.34549150281252627</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.12213665181640106</c:v>
+                  <c:v>0.31269670329204396</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11226407986453951</c:v>
+                  <c:v>0.29663167846209992</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.10274206980904238</c:v>
+                  <c:v>0.27300475013022663</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.358222275240885E-2</c:v>
+                  <c:v>0.25000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.4795698557311269E-2</c:v>
+                  <c:v>0.22768048249248646</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.6393202250021053E-2</c:v>
+                  <c:v>0.20610737385376346</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.8384970977983336E-2</c:v>
+                  <c:v>0.18533980447508136</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.078076153742961E-2</c:v>
+                  <c:v>0.16543469682057088</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.3589838486224534E-2</c:v>
+                  <c:v>0.1464466094067263</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.6820962856429206E-2</c:v>
+                  <c:v>0.12842758726130296</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0482381480333174E-2</c:v>
+                  <c:v>0.11142701927151455</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.4581816942959684E-2</c:v>
+                  <c:v>9.5491502812526302E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.9126458173285071E-2</c:v>
+                  <c:v>8.0664716027288058E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.4122951685636666E-2</c:v>
+                  <c:v>6.698729810778066E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.4496737905816099E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3227271178699601E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.3209786751399122E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.4471741852423231E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7037086855465889E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0926199633097178E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.1558297024311452E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.7390523158633455E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.8523262271306235E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7524718414124473E-33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,157 +659,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="35">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="37">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="38">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80</c:v>
+                <c:pt idx="53">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,157 +851,187 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>4.4658198738520449E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3571276639254267E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2297143969554807E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0851797571835886E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9252268172551057E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7516431641120583E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5662822287370326E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3710449211500529E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1678616683962463E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9586749491281643E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7454224138091125E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5300206745715745E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3143498433881592E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1002388914837602E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8894518968709237E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6836752405607298E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.484505805425573E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2934402249056695E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1118652217959824E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.4104907026397958E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.8213420707034173E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.361310107341131E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.039127601406802E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8621177687455967E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8361674840854958E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9657122223477926E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2537325411907704E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.0176186934892712E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0990530021840371E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.6869027513258882E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.5335315620664881E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.9766082202764213E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.6057834094739639E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1565808881153796E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7771352190069495E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.512770993434243E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.3531758194630399E-3</c:v>
+                  <c:v>9.2582314598999374E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2872954091832775E-3</c:v>
+                  <c:v>3.7021646110686852E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.3034380557669698E-3</c:v>
+                  <c:v>1.1328383814593375E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.3893826230691855E-3</c:v>
+                  <c:v>2.3089228087587704E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.5324892258450994E-3</c:v>
+                  <c:v>3.8952461773385849E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.7198117705146131E-3</c:v>
+                  <c:v>5.8874604851094622E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.9382115233227382E-3</c:v>
+                  <c:v>8.2801052111309281E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1174470874711849E-2</c:v>
+                  <c:v>0.11066622282519691</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.2415406475699652E-2</c:v>
+                  <c:v>0.14239374049671438</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3647980933984895E-2</c:v>
+                  <c:v>0.17789664220527701</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4859412274285947E-2</c:v>
+                  <c:v>0.21707761696507855</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.6037280388938455E-2</c:v>
+                  <c:v>0.25982927244773779</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.7169629730898174E-2</c:v>
+                  <c:v>0.30603442933720826</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8245067531836391E-2</c:v>
+                  <c:v>0.35556644251013736</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40828954816134538</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.46405923592298071</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52272264495739296</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58411898293806119</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64807996677018809</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.71443028384296359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.78298807254924474</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.85356542075558084</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92596888085631057</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,157 +1080,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="35">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="37">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="38">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80</c:v>
+                <c:pt idx="53">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,157 +1272,187 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>0.75576930984963164</c:v>
+                  <c:v>1.5099016362961337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74020964714515824</c:v>
+                  <c:v>1.5088670484005737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72419161355845074</c:v>
+                  <c:v>1.505765982590765</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70774916910406727</c:v>
+                  <c:v>1.5006069846667747</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69091761616231673</c:v>
+                  <c:v>1.4934041950833146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67373338847699327</c:v>
+                  <c:v>1.4841773561859735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65623384184290101</c:v>
+                  <c:v>1.4729517580988192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63845704752474464</c:v>
+                  <c:v>1.4597581694059267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62044158941269389</c:v>
+                  <c:v>1.4446327528168283</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60222636587896017</c:v>
+                  <c:v>1.4276169660470395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58385039725426557</c:v>
+                  <c:v>1.4087574481853442</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56535263979345052</c:v>
+                  <c:v>1.3881058918592917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5467718069459544</c:v>
+                  <c:v>1.3657189015492994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52814619868983037</c:v>
+                  <c:v>1.3416578384397075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50951353962767276</c:v>
+                  <c:v>1.3159886522320343</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49091082647968154</c:v>
+                  <c:v>1.2887817003814321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47237418554344052</c:v>
+                  <c:v>1.2601115552517914</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.45393874062221207</c:v>
+                  <c:v>1.2300567997180754</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4356384918540353</c:v>
+                  <c:v>1.1986998117761214</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4175062058030532</c:v>
+                  <c:v>1.1661265387502806</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.39957331710267724</c:v>
+                  <c:v>1.1324262617177765</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.38186984186781092</c:v>
+                  <c:v>1.0976913507954777</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.36442430302082363</c:v>
+                  <c:v>1.0620170119598284</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34726366760364985</c:v>
+                  <c:v>1.0255010260938839</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.330413296076703</c:v>
+                  <c:v>0.98824348097670756</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.31389690353462352</c:v>
+                  <c:v>0.95034649694972573</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.29773653269957323</c:v>
+                  <c:v>0.91191394701196926</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28195253848526591</c:v>
+                  <c:v>0.8730511721114036</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2665635838594706</c:v>
+                  <c:v>0.83386469241271288</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.25158664666975761</c:v>
+                  <c:v>0.7944619153329322</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.23703703703703716</c:v>
+                  <c:v>0.7549508411451844</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.22292842486432363</c:v>
+                  <c:v>0.71543976695743638</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.20927287695441443</c:v>
+                  <c:v>0.67603698987765581</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.19608090318007129</c:v>
+                  <c:v>0.6368505101789651</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.18336151110409968</c:v>
+                  <c:v>0.59798773527839955</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.17112226840464759</c:v>
+                  <c:v>0.55955518534064286</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1593693724233089</c:v>
+                  <c:v>0.52165820131366103</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.14810772612038284</c:v>
+                  <c:v>0.47306710149329945</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13734101969308196</c:v>
+                  <c:v>0.45158683494160906</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1270718170887061</c:v>
+                  <c:v>0.42353871530948428</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.11730164662592411</c:v>
+                  <c:v>0.40056464866018004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1080310949233992</c:v>
+                  <c:v>0.38272760531347394</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.9259903326095134E-2</c:v>
+                  <c:v>0.37007647536534199</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.0987066015747436E-2</c:v>
+                  <c:v>0.36264593468360262</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.3210928993146943E-2</c:v>
+                  <c:v>0.36045634986377395</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.5929289126039842E-2</c:v>
+                  <c:v>0.36351372240565094</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.9139492467530622E-2</c:v>
+                  <c:v>0.3718096722636115</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.283853106579193E-2</c:v>
+                  <c:v>0.3853214608157397</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.7023137506520299E-2</c:v>
+                  <c:v>0.40401205318880667</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.1689876454791589E-2</c:v>
+                  <c:v>0.42783021976828539</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.6835232492590965E-2</c:v>
+                  <c:v>0.45671067661516179</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49057426440467444</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52932816539652117</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.57286615784183481</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.6210689071296106</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.67380429287458321</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.73092777105001738</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.79228277017283855</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.85770112045518421</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92700351474610521</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99999999999999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,324 +1496,384 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$57</c:f>
+              <c:f>Sheet1!$C$7:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="21">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="27">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="33">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="35">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="37">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="38">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="43">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="47">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="49">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>80</c:v>
+                <c:pt idx="53">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$57</c:f>
+              <c:f>Sheet1!$G$7:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>0.11111111111111119</c:v>
+                  <c:v>0.50990166675787529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10884974539154753</c:v>
+                  <c:v>0.50955228102328687</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10654601087326504</c:v>
+                  <c:v>0.50850503490662846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10420271430191119</c:v>
+                  <c:v>0.50676281436920589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10182271062340092</c:v>
+                  <c:v>0.50433039471641183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9408899505605136E-2</c:v>
+                  <c:v>0.50121444304143936</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.6964221805551712E-2</c:v>
+                  <c:v>0.49742349995124241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.449165598644442E-2</c:v>
+                  <c:v>0.4929679561573258</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1994214488864315E-2</c:v>
+                  <c:v>0.4878600239955278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9474940060574812E-2</c:v>
+                  <c:v>0.48211370395285563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6936902049402284E-2</c:v>
+                  <c:v>0.47574474629312485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.4383192663708598E-2</c:v>
+                  <c:v>0.46877060788657959</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.181692320501141E-2</c:v>
+                  <c:v>0.46121040436182592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.924122027734265E-2</c:v>
+                  <c:v>0.45308485771122198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6659221977963085E-2</c:v>
+                  <c:v>0.44441623949333714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.4074074074074125E-2</c:v>
+                  <c:v>0.43522830978815835</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.1488926170185138E-2</c:v>
+                  <c:v>0.42554625207236235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8906927870805559E-2</c:v>
+                  <c:v>0.41539660419315666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6331224943136813E-2</c:v>
+                  <c:v>0.40480718562988471</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.3764955484439625E-2</c:v>
+                  <c:v>0.39380702124276695</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1211246098745932E-2</c:v>
+                  <c:v>0.38242626171777649</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8673208087573425E-2</c:v>
+                  <c:v>0.37069610092570432</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.6153933659283901E-2</c:v>
+                  <c:v>0.35864869042192821</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3656492161703803E-2</c:v>
+                  <c:v>0.34631705132123364</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1183926342596511E-2</c:v>
+                  <c:v>0.33373498378923383</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.8739248642543094E-2</c:v>
+                  <c:v>0.32093697439846536</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.6325437524747277E-2</c:v>
+                  <c:v>0.30795810160308956</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.3945433846237045E-2</c:v>
+                  <c:v>0.29483393959128812</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1602137274883169E-2</c:v>
+                  <c:v>0.28160046077888606</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.9298402756600695E-2</c:v>
+                  <c:v>0.26829393721146033</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.703703703703707E-2</c:v>
+                  <c:v>0.25495084114518435</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.482079524198485E-2</c:v>
+                  <c:v>0.24160774507890823</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2652377520685449E-2</c:v>
+                  <c:v>0.22830122151148255</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.053442575611312E-2</c:v>
+                  <c:v>0.21506774269908052</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.8469520346247557E-2</c:v>
+                  <c:v>0.20194358068727911</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.646017706025636E-2</c:v>
+                  <c:v>0.18896470789190323</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.4508843973417922E-2</c:v>
+                  <c:v>0.17616669850113476</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2617898484518725E-2</c:v>
+                  <c:v>0.15944457505526546</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.0789644419359179E-2</c:v>
+                  <c:v>0.15125299186844043</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.9026309223896743E-2</c:v>
+                  <c:v>0.13920558136466427</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7330041250446088E-2</c:v>
+                  <c:v>0.1274754205725922</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.5702907140242833E-2</c:v>
+                  <c:v>0.11609466104760166</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4146889305559459E-2</c:v>
+                  <c:v>0.10509449666048391</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2663883514441365E-2</c:v>
+                  <c:v>9.4505078097211967E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1255696581005488E-2</c:v>
+                  <c:v>8.4355430218006178E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.9240441641156585E-3</c:v>
+                  <c:v>7.4673372502210261E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.6705486771165245E-3</c:v>
+                  <c:v>6.5485442797031487E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.4967373111728139E-3</c:v>
+                  <c:v>5.6816824579146587E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.4040401746221663E-3</c:v>
+                  <c:v>4.8691277928542623E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3937885506083489E-3</c:v>
+                  <c:v>4.1131074403789041E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.4672132751179035E-3</c:v>
+                  <c:v>3.415693599724378E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7787978337512929E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.204165829484089E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6933726133042806E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2478182339126226E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.6872392489291822E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.5712875739566594E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.1388679211626601E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.3966473837400499E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.4940126708163193E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9133917046834441E-33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,8 +1900,8 @@
         <c:axId val="1856387711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80"/>
-          <c:min val="30"/>
+          <c:max val="90"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2546,8 +2786,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
@@ -2894,27 +3134,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D643D14-F912-488C-8053-7B15318F5341}">
-  <dimension ref="C5:M57"/>
+  <dimension ref="C5:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.31640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.31640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.75">
       <c r="L5" t="s">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -2937,1298 +3177,1568 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C7">
-        <v>30</v>
+        <v>0.01</v>
       </c>
       <c r="D7" s="1">
         <f>RADIANS(C7)</f>
-        <v>0.52359877559829882</v>
+        <v>1.7453292519943296E-4</v>
       </c>
       <c r="E7" s="1">
-        <f>COS(D7)^2*$M$5</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" ref="E7:E38" si="0">COS(D7)^2*$M$5</f>
+        <v>0.99999996953825843</v>
       </c>
       <c r="F7" s="1">
-        <f>SIN(D7)^2*(1-$M$7*SIN(D7))^2</f>
-        <v>4.4658198738520449E-2</v>
+        <f>IF($M$7/TAN(D7)&lt;=1, SIN(D7)^2*(1-$M$7/TAN(D7))^2, 0)</f>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <f>$M$7^2*(1-$M$8)^2*COS(D7)^2</f>
-        <v>0.11111111111111119</v>
+        <v>0.50990166675787529</v>
       </c>
       <c r="H7" s="1">
         <f>E7+F7+G7</f>
-        <v>0.75576930984963164</v>
+        <v>1.5099016362961337</v>
       </c>
       <c r="L7" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="2">
-        <f>1/SIN(RADIANS(M6))</f>
-        <v>1.1547005383792517</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+        <f>TAN(RADIANS(M6))</f>
+        <v>1.4281480067421144</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C8">
-        <v>31</v>
+        <v>1.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" ref="D8:D57" si="0">RADIANS(C8)</f>
-        <v>0.54105206811824214</v>
+        <f t="shared" ref="D8:D57" si="1">RADIANS(C8)</f>
+        <v>2.6179938779914945E-2</v>
       </c>
       <c r="E8" s="1">
-        <f>COS(D8)^2*$M$5</f>
-        <v>0.58778862511435637</v>
+        <f t="shared" si="0"/>
+        <v>0.99931476737728686</v>
       </c>
       <c r="F8" s="1">
-        <f>SIN(D8)^2*(1-$M$7*SIN(D8))^2</f>
-        <v>4.3571276639254267E-2</v>
+        <f t="shared" ref="F8:F67" si="2">IF($M$7/TAN(D8)&lt;=1, SIN(D8)^2*(1-$M$7/TAN(D8))^2, 0)</f>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:G57" si="1">$M$7^2*(1-$M$8)^2*COS(D8)^2</f>
-        <v>0.10884974539154753</v>
+        <f t="shared" ref="G8:G57" si="3">$M$7^2*(1-$M$8)^2*COS(D8)^2</f>
+        <v>0.50955228102328687</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H57" si="2">E8+F8+G8</f>
-        <v>0.74020964714515824</v>
+        <f t="shared" ref="H8:H57" si="4">E8+F8+G8</f>
+        <v>1.5088670484005737</v>
       </c>
       <c r="L8" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f>1/1.5</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C9">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>5.235987755982989E-2</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.55850536063818546</v>
-      </c>
-      <c r="E9" s="1">
-        <f>COS(D9)^2*$M$5</f>
-        <v>0.57534845871563101</v>
+        <v>0.99726094768413653</v>
       </c>
       <c r="F9" s="1">
-        <f>SIN(D9)^2*(1-$M$7*SIN(D9))^2</f>
-        <v>4.2297143969554807E-2</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.10654601087326504</v>
+        <f t="shared" si="3"/>
+        <v>0.50850503490662846</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.72419161355845074</v>
+        <f t="shared" si="4"/>
+        <v>1.505765982590765</v>
       </c>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.75">
       <c r="C10">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8539816339744828E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99384417029756889</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50676281436920589</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5006069846667747</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.75">
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10471975511965978</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98907380036690273</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50433039471641183</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4934041950833146</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.75">
+      <c r="C12">
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1308996938995747</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9829629131445341</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50121444304143936</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4841773561859735</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.75">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15707963267948966</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.97552825814757682</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.49742349995124241</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4729517580988192</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.75">
+      <c r="C14">
+        <v>10.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18325957145940461</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96679021324860093</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4929679561573258</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4597581694059267</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.75">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20943951023931956</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9567727288213006</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4878600239955278</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4446327528168283</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.75">
+      <c r="C16">
+        <v>13.5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23561944901923448</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94550326209418389</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.48211370395285563</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4276169660470395</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.93301270189221941</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47574474629312485</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4087574481853442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C18">
+        <v>16.5</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28797932657906439</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91933528397271203</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46877060788657959</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3881058918592917</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90450849718747361</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.46121040436182592</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3657189015492994</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C20">
+        <v>19.5</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34033920413889424</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88857298072848545</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45308485771122198</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3416578384397075</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36651914291880922</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87157241273869712</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.44441623949333714</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3159886522320343</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C22">
+        <v>22.5</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85355339059327373</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43522830978815835</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2887817003814321</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41887902047863912</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83456530317942901</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42554625207236235</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2601115552517914</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C24">
+        <v>25.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44505895925855404</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81466019552491875</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41539660419315666</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2300567997180754</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79389262614623668</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40480718562988471</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1986998117761214</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C26">
+        <v>28.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49741883681838395</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7723195175075136</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39380702124276695</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1661265387502806</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38242626171777649</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1324262617177765</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C28">
+        <v>31.5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5497787143782138</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72699524986977337</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37069610092570432</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0976913507954777</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C29">
         <v>33</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57595865315812877</v>
+      </c>
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>0.57595865315812877</v>
-      </c>
-      <c r="E10" s="1">
-        <f>COS(D10)^2*$M$5</f>
-        <v>0.56269465723032019</v>
-      </c>
-      <c r="F10" s="1">
-        <f>SIN(D10)^2*(1-$M$7*SIN(D10))^2</f>
-        <v>4.0851797571835886E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.10420271430191119</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.70774916910406727</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C11">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
+        <v>0.70336832153790019</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35864869042192821</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0620170119598284</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C30">
+        <v>34.5</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60213859193804364</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>0.59341194567807209</v>
-      </c>
-      <c r="E11" s="1">
-        <f>COS(D11)^2*$M$5</f>
-        <v>0.54984263736636474</v>
-      </c>
-      <c r="F11" s="1">
-        <f>SIN(D11)^2*(1-$M$7*SIN(D11))^2</f>
-        <v>3.9252268172551057E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.10182271062340092</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.69091761616231673</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C12">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
+        <v>0.67918397477265025</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34631705132123364</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.0255010260938839</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C31">
+        <v>36</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>0.6108652381980153</v>
-      </c>
-      <c r="E12" s="1">
-        <f>COS(D12)^2*$M$5</f>
-        <v>0.53680805733026749</v>
-      </c>
-      <c r="F12" s="1">
-        <f>SIN(D12)^2*(1-$M$7*SIN(D12))^2</f>
-        <v>3.7516431641120583E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9408899505605136E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.67373338847699327</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1">
+        <v>0.65450849718747373</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33373498378923383</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>0.98824348097670756</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C32">
+        <v>37.5</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6544984694978736</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>0.62831853071795862</v>
-      </c>
-      <c r="E13" s="1">
-        <f>COS(D13)^2*$M$5</f>
-        <v>0.52360679774997898</v>
-      </c>
-      <c r="F13" s="1">
-        <f>SIN(D13)^2*(1-$M$7*SIN(D13))^2</f>
-        <v>3.5662822287370326E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>9.6964221805551712E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.65623384184290101</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C14">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1">
+        <v>0.62940952255126037</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32093697439846536</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>0.95034649694972573</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C33">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68067840827778847</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>0.64577182323790194</v>
-      </c>
-      <c r="E14" s="1">
-        <f>COS(D14)^2*$M$5</f>
-        <v>0.51025494232679969</v>
-      </c>
-      <c r="F14" s="1">
-        <f>SIN(D14)^2*(1-$M$7*SIN(D14))^2</f>
-        <v>3.3710449211500529E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="1"/>
-        <v>9.449165598644442E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.63845704752474464</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C15">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1">
+        <v>0.6039558454088797</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30795810160308956</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>0.91191394701196926</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C34">
+        <v>40.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.70685834705770345</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>0.66322511575784526</v>
-      </c>
-      <c r="E15" s="1">
-        <f>COS(D15)^2*$M$5</f>
-        <v>0.49676875823986705</v>
-      </c>
-      <c r="F15" s="1">
-        <f>SIN(D15)^2*(1-$M$7*SIN(D15))^2</f>
-        <v>3.1678616683962463E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="1"/>
-        <v>9.1994214488864315E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.62044158941269389</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
-      <c r="C16">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1">
+        <v>0.57821723252011548</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29483393959128812</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8730511721114036</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C35">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73303828583761843</v>
+      </c>
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>0.68067840827778847</v>
-      </c>
-      <c r="E16" s="1">
-        <f>COS(D16)^2*$M$5</f>
-        <v>0.4831646763271038</v>
-      </c>
-      <c r="F16" s="1">
-        <f>SIN(D16)^2*(1-$M$7*SIN(D16))^2</f>
-        <v>2.9586749491281643E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="1"/>
-        <v>8.9474940060574812E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60222636587896017</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1">
+        <v>0.55226423163382676</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28160046077888606</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="4"/>
+        <v>0.83386469241271288</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C36">
+        <v>43.5</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7592182246175333</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="E17" s="1">
-        <f>COS(D17)^2*$M$5</f>
-        <v>0.46945927106677215</v>
-      </c>
-      <c r="F17" s="1">
-        <f>SIN(D17)^2*(1-$M$7*SIN(D17))^2</f>
-        <v>2.7454224138091125E-2</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6936902049402284E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.58385039725426557</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C18">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1">
+        <v>0.52616797812147187</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26829393721146033</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="4"/>
+        <v>0.7944619153329322</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>0.71558499331767511</v>
-      </c>
-      <c r="E18" s="1">
-        <f>COS(D18)^2*$M$5</f>
-        <v>0.45566924038402618</v>
-      </c>
-      <c r="F18" s="1">
-        <f>SIN(D18)^2*(1-$M$7*SIN(D18))^2</f>
-        <v>2.5300206745715745E-2</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4383192663708598E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.56535263979345052</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C19">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25495084114518435</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.7549508411451844</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C38">
+        <v>46.5</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81157810217736326</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>0.73303828583761843</v>
-      </c>
-      <c r="E19" s="1">
-        <f>COS(D19)^2*$M$5</f>
-        <v>0.44181138530706143</v>
-      </c>
-      <c r="F19" s="1">
-        <f>SIN(D19)^2*(1-$M$7*SIN(D19))^2</f>
-        <v>2.3143498433881592E-2</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="1"/>
-        <v>8.181692320501141E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5467718069459544</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C20">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.75049157835756175</v>
-      </c>
-      <c r="E20" s="1">
-        <f>COS(D20)^2*$M$5</f>
-        <v>0.42790258949765009</v>
-      </c>
-      <c r="F20" s="1">
-        <f>SIN(D20)^2*(1-$M$7*SIN(D20))^2</f>
-        <v>2.1002388914837602E-2</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="1"/>
-        <v>7.924122027734265E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="2"/>
-        <v>0.52814619868983037</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C21">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.76794487087750496</v>
-      </c>
-      <c r="E21" s="1">
-        <f>COS(D21)^2*$M$5</f>
-        <v>0.41395979868100047</v>
-      </c>
-      <c r="F21" s="1">
-        <f>SIN(D21)^2*(1-$M$7*SIN(D21))^2</f>
-        <v>1.8894518968709237E-2</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="1"/>
-        <v>7.6659221977963085E-2</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>0.50951353962767276</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C22">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="E22" s="1">
-        <f>COS(D22)^2*$M$5</f>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="F22" s="1">
-        <f>SIN(D22)^2*(1-$M$7*SIN(D22))^2</f>
-        <v>1.6836752405607298E-2</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4074074074074125E-2</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>0.49091082647968154</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C23">
-        <v>46</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8028514559173916</v>
-      </c>
-      <c r="E23" s="1">
-        <f>COS(D23)^2*$M$5</f>
-        <v>0.38604020131899963</v>
-      </c>
-      <c r="F23" s="1">
-        <f>SIN(D23)^2*(1-$M$7*SIN(D23))^2</f>
-        <v>1.484505805425573E-2</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1488926170185138E-2</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>0.47237418554344052</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C24">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.82030474843733492</v>
-      </c>
-      <c r="E24" s="1">
-        <f>COS(D24)^2*$M$5</f>
-        <v>0.37209741050234985</v>
-      </c>
-      <c r="F24" s="1">
-        <f>SIN(D24)^2*(1-$M$7*SIN(D24))^2</f>
-        <v>1.2934402249056695E-2</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="1"/>
-        <v>6.8906927870805559E-2</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.45393874062221207</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C25">
+        <v>0.47383202187852813</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.24160774507890823</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.71543976695743638</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C39">
         <v>48</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
         <v>0.83775804095727824</v>
       </c>
-      <c r="E25" s="1">
-        <f>COS(D25)^2*$M$5</f>
-        <v>0.35818861469293867</v>
-      </c>
-      <c r="F25" s="1">
-        <f>SIN(D25)^2*(1-$M$7*SIN(D25))^2</f>
-        <v>1.1118652217959824E-2</v>
-      </c>
-      <c r="G25" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6331224943136813E-2</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4356384918540353</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C26">
-        <v>49</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.85521133347722145</v>
-      </c>
-      <c r="E26" s="1">
-        <f>COS(D26)^2*$M$5</f>
-        <v>0.34433075961597381</v>
-      </c>
-      <c r="F26" s="1">
-        <f>SIN(D26)^2*(1-$M$7*SIN(D26))^2</f>
-        <v>9.4104907026397958E-3</v>
-      </c>
-      <c r="G26" s="1">
-        <f t="shared" si="1"/>
-        <v>6.3764955484439625E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.4175062058030532</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.87266462599716477</v>
-      </c>
-      <c r="E27" s="1">
-        <f>COS(D27)^2*$M$5</f>
-        <v>0.33054072893322789</v>
-      </c>
-      <c r="F27" s="1">
-        <f>SIN(D27)^2*(1-$M$7*SIN(D27))^2</f>
-        <v>7.8213420707034173E-3</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="1"/>
-        <v>6.1211246098745932E-2</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.39957331710267724</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C28">
+      <c r="E39" s="1">
+        <f t="shared" ref="E39:E67" si="5">COS(D39)^2*$M$5</f>
+        <v>0.44773576836617329</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22830122151148255</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="4"/>
+        <v>0.67603698987765581</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C40">
+        <v>49.5</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86393797973719311</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42178276747988458</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21506774269908052</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.6368505101789651</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C41">
         <v>51</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
         <v>0.89011791851710809</v>
       </c>
-      <c r="E28" s="1">
-        <f>COS(D28)^2*$M$5</f>
-        <v>0.31683532367289635</v>
-      </c>
-      <c r="F28" s="1">
-        <f>SIN(D28)^2*(1-$M$7*SIN(D28))^2</f>
-        <v>6.361310107341131E-3</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="1"/>
-        <v>5.8673208087573425E-2</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.38186984186781092</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C29">
-        <v>52</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.90757121103705141</v>
-      </c>
-      <c r="E29" s="1">
-        <f>COS(D29)^2*$M$5</f>
-        <v>0.30323124176013294</v>
-      </c>
-      <c r="F29" s="1">
-        <f>SIN(D29)^2*(1-$M$7*SIN(D29))^2</f>
-        <v>5.039127601406802E-3</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6153933659283901E-2</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.36442430302082363</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C30">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92502450355699462</v>
-      </c>
-      <c r="E30" s="1">
-        <f>COS(D30)^2*$M$5</f>
-        <v>0.28974505767320041</v>
-      </c>
-      <c r="F30" s="1">
-        <f>SIN(D30)^2*(1-$M$7*SIN(D30))^2</f>
-        <v>3.8621177687455967E-3</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3656492161703803E-2</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="2"/>
-        <v>0.34726366760364985</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C31">
+      <c r="E41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.39604415459112041</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20194358068727911</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="4"/>
+        <v>0.59798773527839955</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C42">
+        <v>52.5</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91629785729702307</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="5"/>
+        <v>0.37059047744873963</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18896470789190323</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55955518534064286</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C43">
         <v>54</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
         <v>0.94247779607693793</v>
       </c>
-      <c r="E31" s="1">
-        <f>COS(D31)^2*$M$5</f>
-        <v>0.27639320225002101</v>
-      </c>
-      <c r="F31" s="1">
-        <f>SIN(D31)^2*(1-$M$7*SIN(D31))^2</f>
-        <v>2.8361674840854958E-3</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1183926342596511E-2</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="2"/>
-        <v>0.330413296076703</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C32">
-        <v>55</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>0.95993108859688125</v>
-      </c>
-      <c r="E32" s="1">
-        <f>COS(D32)^2*$M$5</f>
-        <v>0.26319194266973261</v>
-      </c>
-      <c r="F32" s="1">
-        <f>SIN(D32)^2*(1-$M$7*SIN(D32))^2</f>
-        <v>1.9657122223477926E-3</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="1"/>
-        <v>4.8739248642543094E-2</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31389690353462352</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C33">
+      <c r="E43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34549150281252627</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17616669850113476</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52165820131366103</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C44">
         <v>56</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
         <v>0.97738438111682457</v>
       </c>
-      <c r="E33" s="1">
-        <f>COS(D33)^2*$M$5</f>
-        <v>0.25015736263363519</v>
-      </c>
-      <c r="F33" s="1">
-        <f>SIN(D33)^2*(1-$M$7*SIN(D33))^2</f>
-        <v>1.2537325411907704E-3</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6325437524747277E-2</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.29773653269957323</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C34">
+      <c r="E44" s="1">
+        <f t="shared" si="5"/>
+        <v>0.31269670329204396</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2582314598999374E-4</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15944457505526546</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47306710149329945</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C45">
         <v>57</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
         <v>0.99483767363676789</v>
       </c>
-      <c r="E34" s="1">
-        <f>COS(D34)^2*$M$5</f>
-        <v>0.23730534276967996</v>
-      </c>
-      <c r="F34" s="1">
-        <f>SIN(D34)^2*(1-$M$7*SIN(D34))^2</f>
-        <v>7.0176186934892712E-4</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="1"/>
-        <v>4.3945433846237045E-2</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.28195253848526591</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C35">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0122909661567112</v>
-      </c>
-      <c r="E35" s="1">
-        <f>COS(D35)^2*$M$5</f>
-        <v>0.22465154128436901</v>
-      </c>
-      <c r="F35" s="1">
-        <f>SIN(D35)^2*(1-$M$7*SIN(D35))^2</f>
-        <v>3.0990530021840371E-4</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1602137274883169E-2</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="2"/>
-        <v>0.2665635838594706</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C36">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0297442586766545</v>
-      </c>
-      <c r="E36" s="1">
-        <f>COS(D36)^2*$M$5</f>
-        <v>0.21221137488564368</v>
-      </c>
-      <c r="F36" s="1">
-        <f>SIN(D36)^2*(1-$M$7*SIN(D36))^2</f>
-        <v>7.6869027513258882E-5</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9298402756600695E-2</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="2"/>
-        <v>0.25158664666975761</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C37">
+      <c r="E45" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29663167846209992</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7021646110686852E-3</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15125299186844043</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45158683494160906</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C46">
+        <v>58.5</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0210176124166828</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="5"/>
+        <v>0.27300475013022663</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1328383814593375E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13920558136466427</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.42353871530948428</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C47">
         <v>60</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="E37" s="1">
-        <f>COS(D37)^2*$M$5</f>
-        <v>0.20000000000000009</v>
-      </c>
-      <c r="F37" s="1">
-        <f>SIN(D37)^2*(1-$M$7*SIN(D37))^2</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="1"/>
-        <v>3.703703703703707E-2</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="2"/>
-        <v>0.23703703703703716</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C38">
-        <v>61</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>1.064650843716541</v>
-      </c>
-      <c r="E38" s="1">
-        <f>COS(D38)^2*$M$5</f>
-        <v>0.18803229430671808</v>
-      </c>
-      <c r="F38" s="1">
-        <f>SIN(D38)^2*(1-$M$7*SIN(D38))^2</f>
-        <v>7.5335315620664881E-5</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="1"/>
-        <v>3.482079524198485E-2</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="2"/>
-        <v>0.22292842486432363</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C39">
-        <v>62</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0821041362364843</v>
-      </c>
-      <c r="E39" s="1">
-        <f>COS(D39)^2*$M$5</f>
-        <v>0.17632283861170134</v>
-      </c>
-      <c r="F39" s="1">
-        <f>SIN(D39)^2*(1-$M$7*SIN(D39))^2</f>
-        <v>2.9766082202764213E-4</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="1"/>
-        <v>3.2652377520685449E-2</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20927287695441443</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C40">
+      <c r="E47" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3089228087587704E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1274754205725922</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40056464866018004</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C48">
+        <v>61.5</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0733774899765127</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.22768048249248646</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8952461773385849E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11609466104760166</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38272760531347394</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C49">
         <v>63</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
         <v>1.0995574287564276</v>
       </c>
-      <c r="E40" s="1">
-        <f>COS(D40)^2*$M$5</f>
-        <v>0.16488589908301077</v>
-      </c>
-      <c r="F40" s="1">
-        <f>SIN(D40)^2*(1-$M$7*SIN(D40))^2</f>
-        <v>6.6057834094739639E-4</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="1"/>
-        <v>3.053442575611312E-2</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19608090318007129</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C41">
-        <v>64</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1170107212763709</v>
-      </c>
-      <c r="E41" s="1">
-        <f>COS(D41)^2*$M$5</f>
-        <v>0.15373540986973674</v>
-      </c>
-      <c r="F41" s="1">
-        <f>SIN(D41)^2*(1-$M$7*SIN(D41))^2</f>
-        <v>1.1565808881153796E-3</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8469520346247557E-2</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18336151110409968</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C42">
-        <v>65</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1344640137963142</v>
-      </c>
-      <c r="E42" s="1">
-        <f>COS(D42)^2*$M$5</f>
-        <v>0.14288495612538429</v>
-      </c>
-      <c r="F42" s="1">
-        <f>SIN(D42)^2*(1-$M$7*SIN(D42))^2</f>
-        <v>1.7771352190069495E-3</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="1"/>
-        <v>2.646017706025636E-2</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17112226840464759</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C43">
+      <c r="E49" s="1">
+        <f t="shared" si="5"/>
+        <v>0.20610737385376346</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8874604851094622E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10509449666048391</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="4"/>
+        <v>0.37007647536534199</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C50">
+        <v>64.5</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1257373675363425</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18533980447508136</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2801052111309281E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4505078097211967E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36264593468360262</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C51">
         <v>66</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
+      <c r="D51" s="1">
+        <f t="shared" si="1"/>
         <v>1.1519173063162575</v>
       </c>
-      <c r="E43" s="1">
-        <f>COS(D43)^2*$M$5</f>
-        <v>0.13234775745645672</v>
-      </c>
-      <c r="F43" s="1">
-        <f>SIN(D43)^2*(1-$M$7*SIN(D43))^2</f>
-        <v>2.512770993434243E-3</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4508843973417922E-2</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1593693724233089</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C44">
-        <v>67</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1693705988362009</v>
-      </c>
-      <c r="E44" s="1">
-        <f>COS(D44)^2*$M$5</f>
-        <v>0.12213665181640106</v>
-      </c>
-      <c r="F44" s="1">
-        <f>SIN(D44)^2*(1-$M$7*SIN(D44))^2</f>
-        <v>3.3531758194630399E-3</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2617898484518725E-2</v>
-      </c>
-      <c r="H44" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14810772612038284</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C45">
-        <v>68</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1868238913561442</v>
-      </c>
-      <c r="E45" s="1">
-        <f>COS(D45)^2*$M$5</f>
-        <v>0.11226407986453951</v>
-      </c>
-      <c r="F45" s="1">
-        <f>SIN(D45)^2*(1-$M$7*SIN(D45))^2</f>
-        <v>4.2872954091832775E-3</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0789644419359179E-2</v>
-      </c>
-      <c r="H45" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13734101969308196</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C46">
+      <c r="E51" s="1">
+        <f t="shared" si="5"/>
+        <v>0.16543469682057088</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11066622282519691</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4355430218006178E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36045634986377395</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C52">
+        <v>67.5</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1780972450961724</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1464466094067263</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14239374049671438</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4673372502210261E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36351372240565094</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C53">
         <v>69</v>
       </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
+      <c r="D53" s="1">
+        <f t="shared" si="1"/>
         <v>1.2042771838760873</v>
       </c>
-      <c r="E46" s="1">
-        <f>COS(D46)^2*$M$5</f>
-        <v>0.10274206980904238</v>
-      </c>
-      <c r="F46" s="1">
-        <f>SIN(D46)^2*(1-$M$7*SIN(D46))^2</f>
-        <v>5.3034380557669698E-3</v>
-      </c>
-      <c r="G46" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9026309223896743E-2</v>
-      </c>
-      <c r="H46" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1270718170887061</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C47">
-        <v>70</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2217304763960306</v>
-      </c>
-      <c r="E47" s="1">
-        <f>COS(D47)^2*$M$5</f>
-        <v>9.358222275240885E-2</v>
-      </c>
-      <c r="F47" s="1">
-        <f>SIN(D47)^2*(1-$M$7*SIN(D47))^2</f>
-        <v>6.3893826230691855E-3</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7330041250446088E-2</v>
-      </c>
-      <c r="H47" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11730164662592411</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C48">
-        <v>71</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2391837689159739</v>
-      </c>
-      <c r="E48" s="1">
-        <f>COS(D48)^2*$M$5</f>
-        <v>8.4795698557311269E-2</v>
-      </c>
-      <c r="F48" s="1">
-        <f>SIN(D48)^2*(1-$M$7*SIN(D48))^2</f>
-        <v>7.5324892258450994E-3</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5702907140242833E-2</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1080310949233992</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C49">
+      <c r="E53" s="1">
+        <f t="shared" si="5"/>
+        <v>0.12842758726130296</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17789664220527701</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5485442797031487E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3718096722636115</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C54">
+        <v>70.5</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2304571226560024</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="5"/>
+        <v>0.11142701927151455</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.21707761696507855</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="3"/>
+        <v>5.6816824579146587E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3853214608157397</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C55">
         <v>72</v>
       </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
+      <c r="D55" s="1">
+        <f t="shared" si="1"/>
         <v>1.2566370614359172</v>
       </c>
-      <c r="E49" s="1">
-        <f>COS(D49)^2*$M$5</f>
-        <v>7.6393202250021053E-2</v>
-      </c>
-      <c r="F49" s="1">
-        <f>SIN(D49)^2*(1-$M$7*SIN(D49))^2</f>
-        <v>8.7198117705146131E-3</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4146889305559459E-2</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="2"/>
-        <v>9.9259903326095134E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C50">
-        <v>73</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2740903539558606</v>
-      </c>
-      <c r="E50" s="1">
-        <f>COS(D50)^2*$M$5</f>
-        <v>6.8384970977983336E-2</v>
-      </c>
-      <c r="F50" s="1">
-        <f>SIN(D50)^2*(1-$M$7*SIN(D50))^2</f>
-        <v>9.9382115233227382E-3</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2663883514441365E-2</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0987066015747436E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C51">
-        <v>74</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2915436464758039</v>
-      </c>
-      <c r="E51" s="1">
-        <f>COS(D51)^2*$M$5</f>
-        <v>6.078076153742961E-2</v>
-      </c>
-      <c r="F51" s="1">
-        <f>SIN(D51)^2*(1-$M$7*SIN(D51))^2</f>
-        <v>1.1174470874711849E-2</v>
-      </c>
-      <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1255696581005488E-2</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="2"/>
-        <v>8.3210928993146943E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C52">
+      <c r="E55" s="1">
+        <f t="shared" si="5"/>
+        <v>9.5491502812526302E-2</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25982927244773779</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8691277928542623E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="4"/>
+        <v>0.40401205318880667</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C56">
+        <v>73.5</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2828170002158321</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="5"/>
+        <v>8.0664716027288058E-2</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30603442933720826</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1131074403789041E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="4"/>
+        <v>0.42783021976828539</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C57">
         <v>75</v>
       </c>
-      <c r="D52" s="1">
-        <f t="shared" si="0"/>
+      <c r="D57" s="1">
+        <f t="shared" si="1"/>
         <v>1.3089969389957472</v>
       </c>
-      <c r="E52" s="1">
-        <f>COS(D52)^2*$M$5</f>
-        <v>5.3589838486224534E-2</v>
-      </c>
-      <c r="F52" s="1">
-        <f>SIN(D52)^2*(1-$M$7*SIN(D52))^2</f>
-        <v>1.2415406475699652E-2</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>9.9240441641156585E-3</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5929289126039842E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C53">
-        <v>76</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3264502315156905</v>
-      </c>
-      <c r="E53" s="1">
-        <f>COS(D53)^2*$M$5</f>
-        <v>4.6820962856429206E-2</v>
-      </c>
-      <c r="F53" s="1">
-        <f>SIN(D53)^2*(1-$M$7*SIN(D53))^2</f>
-        <v>1.3647980933984895E-2</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6705486771165245E-3</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="2"/>
-        <v>6.9139492467530622E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C54">
-        <v>77</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3439035240356338</v>
-      </c>
-      <c r="E54" s="1">
-        <f>COS(D54)^2*$M$5</f>
-        <v>4.0482381480333174E-2</v>
-      </c>
-      <c r="F54" s="1">
-        <f>SIN(D54)^2*(1-$M$7*SIN(D54))^2</f>
-        <v>1.4859412274285947E-2</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4967373111728139E-3</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="2"/>
-        <v>6.283853106579193E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C55">
+      <c r="E57" s="1">
+        <f t="shared" si="5"/>
+        <v>6.698729810778066E-2</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35556644251013736</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="3"/>
+        <v>3.415693599724378E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="4"/>
+        <v>0.45671067661516179</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C58">
+        <v>76.5</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" ref="D58:D67" si="6">RADIANS(C58)</f>
+        <v>1.3351768777756621</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4496737905816099E-2</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40828954816134538</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" ref="G58:G67" si="7">$M$7^2*(1-$M$8)^2*COS(D58)^2</f>
+        <v>2.7787978337512929E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" ref="H58:H67" si="8">E58+F58+G58</f>
+        <v>0.49057426440467444</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C59">
         <v>78</v>
       </c>
-      <c r="D55" s="1">
-        <f t="shared" si="0"/>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
         <v>1.3613568165555769</v>
       </c>
-      <c r="E55" s="1">
-        <f>COS(D55)^2*$M$5</f>
-        <v>3.4581816942959684E-2</v>
-      </c>
-      <c r="F55" s="1">
-        <f>SIN(D55)^2*(1-$M$7*SIN(D55))^2</f>
-        <v>1.6037280388938455E-2</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="1"/>
-        <v>6.4040401746221663E-3</v>
-      </c>
-      <c r="H55" s="1">
-        <f t="shared" si="2"/>
-        <v>5.7023137506520299E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C56">
-        <v>79</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3788101090755203</v>
-      </c>
-      <c r="E56" s="1">
-        <f>COS(D56)^2*$M$5</f>
-        <v>2.9126458173285071E-2</v>
-      </c>
-      <c r="F56" s="1">
-        <f>SIN(D56)^2*(1-$M$7*SIN(D56))^2</f>
-        <v>1.7169629730898174E-2</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="1"/>
-        <v>5.3937885506083489E-3</v>
-      </c>
-      <c r="H56" s="1">
-        <f t="shared" si="2"/>
-        <v>5.1689876454791589E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C57">
-        <v>80</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="E57" s="1">
-        <f>COS(D57)^2*$M$5</f>
-        <v>2.4122951685636666E-2</v>
-      </c>
-      <c r="F57" s="1">
-        <f>SIN(D57)^2*(1-$M$7*SIN(D57))^2</f>
-        <v>1.8245067531836391E-2</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="1"/>
-        <v>4.4672132751179035E-3</v>
-      </c>
-      <c r="H57" s="1">
-        <f t="shared" si="2"/>
-        <v>4.6835232492590965E-2</v>
-      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="5"/>
+        <v>4.3227271178699601E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46405923592298071</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="7"/>
+        <v>2.204165829484089E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="8"/>
+        <v>0.52932816539652117</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C60">
+        <v>79.5</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="6"/>
+        <v>1.387536755335492</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3209786751399122E-2</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52272264495739296</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6933726133042806E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="8"/>
+        <v>0.57286615784183481</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C61">
+        <v>81</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4471741852423231E-2</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58411898293806119</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2478182339126226E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="8"/>
+        <v>0.6210689071296106</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C62">
+        <v>82.5</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4398966328953218</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7037086855465889E-2</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64807996677018809</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="7"/>
+        <v>8.6872392489291822E-3</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="8"/>
+        <v>0.67380429287458321</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C63">
+        <v>84</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0926199633097178E-2</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71443028384296359</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="7"/>
+        <v>5.5712875739566594E-3</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="8"/>
+        <v>0.73092777105001738</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C64">
+        <v>85.5</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4922565104551517</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="5"/>
+        <v>6.1558297024311452E-3</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78298807254924474</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="7"/>
+        <v>3.1388679211626601E-3</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="8"/>
+        <v>0.79228277017283855</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C65">
+        <v>87</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7390523158633455E-3</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85356542075558084</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3966473837400499E-3</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="8"/>
+        <v>0.85770112045518421</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C66">
+        <v>88.5</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5446163880149817</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8523262271306235E-4</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92596888085631057</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4940126708163193E-4</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="8"/>
+        <v>0.92700351474610521</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="C67">
+        <v>90</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9133917046834441E-33</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.75">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
